--- a/src/materials_i.xlsx
+++ b/src/materials_i.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="390" windowWidth="15015" windowHeight="6030"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="282">
   <si>
     <t>name</t>
   </si>
@@ -911,6 +911,15 @@
   </si>
   <si>
     <t>C19,04H24,58S0,196N0,04</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>sm</t>
   </si>
 </sst>
 </file>
@@ -973,7 +982,10 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1069,38 +1081,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица3" displayName="Таблица3" ref="A1:L100" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:L100"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица3" displayName="Таблица3" ref="A1:M100" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:M100"/>
+  <tableColumns count="13">
     <tableColumn id="1" uniqueName="name" name="name">
       <xmlColumnPr mapId="2" xpath="/Root/Row/name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="formula" name="formula" dataDxfId="8">
+    <tableColumn id="2" uniqueName="formula" name="formula" dataDxfId="9">
       <xmlColumnPr mapId="2" xpath="/Root/Row/formula" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Mol_massa" name="Mol.massa" dataDxfId="7">
+    <tableColumn id="3" uniqueName="Mol_massa" name="Mol.massa" dataDxfId="8">
       <xmlColumnPr mapId="2" xpath="/Root/Row/Mol_massa" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="T_vsp" name="T.vsp" dataDxfId="6">
+    <tableColumn id="4" uniqueName="T_vsp" name="T.vsp" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/Root/Row/T_vsp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="T_samovospl" name="T.samovospl" dataDxfId="5">
+    <tableColumn id="5" uniqueName="T_samovospl" name="T.samovospl" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/Root/Row/T_samovospl" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="const_A" name="const.A" dataDxfId="4">
+    <tableColumn id="6" uniqueName="const_A" name="const.A" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/Root/Row/const_A" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="const_B" name="const.B" dataDxfId="3">
+    <tableColumn id="7" uniqueName="const_B" name="const.B" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/Root/Row/const_B" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="const_Ca" name="const.Ca" dataDxfId="2">
+    <tableColumn id="8" uniqueName="const_Ca" name="const.Ca" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/Root/Row/const_Ca" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="T_interval" name="T.interval" dataDxfId="1">
+    <tableColumn id="9" uniqueName="T_interval" name="T.interval" dataDxfId="2">
       <calculatedColumnFormula>-60/100</calculatedColumnFormula>
       <xmlColumnPr mapId="2" xpath="/Root/Row/T_interval" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="NKPR" name="NKPR" dataDxfId="0">
+    <tableColumn id="10" uniqueName="NKPR" name="NKPR" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/Root/Row/NKPR" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="type" name="type">
@@ -1109,6 +1121,7 @@
     <tableColumn id="12" uniqueName="Tepl_sgor" name="Tepl.sgor">
       <xmlColumnPr mapId="2" xpath="/Root/Row/Tepl_sgor" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="14" uniqueName="14" name="tip" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1401,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,10 +1433,11 @@
     <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +1474,11 @@
       <c r="L1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,8 +1515,11 @@
       <c r="L2">
         <v>29879</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1536,8 +1556,11 @@
       <c r="L3">
         <v>45017</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1597,11 @@
       <c r="L4">
         <v>38385</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1599,8 +1625,11 @@
       <c r="L5">
         <v>18585</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +1666,11 @@
       <c r="L6">
         <v>32386</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1675,8 +1707,11 @@
       <c r="L7">
         <v>27071</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1700,8 +1735,11 @@
       <c r="L8">
         <v>49965</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1738,8 +1776,11 @@
       <c r="L9">
         <v>31360</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1763,8 +1804,11 @@
       <c r="K10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1801,8 +1845,11 @@
       <c r="L11">
         <v>40576</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1826,8 +1873,11 @@
       <c r="L12">
         <v>44573</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1864,8 +1914,11 @@
       <c r="L13">
         <v>45713</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1889,8 +1942,11 @@
       <c r="L14">
         <v>45317</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1914,8 +1970,11 @@
       <c r="L15">
         <v>45574</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1952,8 +2011,11 @@
       <c r="L16">
         <v>28280</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1980,8 +2042,11 @@
       <c r="L17">
         <v>28202</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2018,8 +2083,11 @@
       <c r="L18">
         <v>36805</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2053,8 +2121,11 @@
       <c r="L19">
         <v>18496</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -2078,8 +2149,11 @@
       <c r="L20">
         <v>119841</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2116,8 +2190,11 @@
       <c r="L21">
         <v>44312</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2154,8 +2231,11 @@
       <c r="L22">
         <v>45105</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2192,8 +2272,11 @@
       <c r="L23">
         <v>39587</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2230,8 +2313,11 @@
       <c r="L24">
         <v>44919</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2268,8 +2354,11 @@
       <c r="L25">
         <v>14644</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2306,8 +2395,11 @@
       <c r="L26">
         <v>16102</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2344,8 +2436,11 @@
       <c r="L27">
         <v>44602</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2371,8 +2466,11 @@
       <c r="L28">
         <v>32610</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2406,8 +2504,11 @@
       <c r="K29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2479,8 +2583,11 @@
       <c r="L31">
         <v>10873</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2517,8 +2624,11 @@
       <c r="L32">
         <v>34876</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2555,8 +2665,11 @@
       <c r="L33">
         <v>34147</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2593,8 +2706,11 @@
       <c r="L34">
         <v>44470</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2631,8 +2747,11 @@
       <c r="L35">
         <v>45578</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2774,11 @@
       <c r="L36">
         <v>45928</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2693,8 +2815,11 @@
       <c r="L37">
         <v>36743</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2731,8 +2856,11 @@
       <c r="L38">
         <v>45239</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2769,8 +2897,11 @@
       <c r="L39">
         <v>46663</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2807,8 +2938,11 @@
       <c r="L40">
         <v>34139</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -2845,8 +2979,11 @@
       <c r="L41">
         <v>52829</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2883,8 +3020,11 @@
       <c r="L42">
         <v>41217</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2921,8 +3061,11 @@
       <c r="L43">
         <v>41207</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2956,8 +3099,11 @@
       <c r="L44">
         <v>50000</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -2994,8 +3140,11 @@
       <c r="L45">
         <v>23839</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3032,8 +3181,11 @@
       <c r="L46">
         <v>33879</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -3064,8 +3216,11 @@
       <c r="K47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3102,8 +3257,11 @@
       <c r="L48">
         <v>39435</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -3140,8 +3298,11 @@
       <c r="L49">
         <v>44684</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -3164,8 +3325,11 @@
       <c r="L50">
         <v>10104</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3191,8 +3355,11 @@
       <c r="L51">
         <v>27696</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -3229,8 +3396,11 @@
       <c r="L52">
         <v>44787</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -3267,8 +3437,11 @@
       <c r="L53">
         <v>44342</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3305,8 +3478,11 @@
       <c r="L54">
         <v>45350</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -3343,8 +3519,11 @@
       <c r="L55">
         <v>36702</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -3381,8 +3560,11 @@
       <c r="L56">
         <v>35676</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -3419,8 +3601,11 @@
       <c r="L57">
         <v>46353</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -3454,8 +3639,11 @@
       <c r="L58">
         <v>45604</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -3492,8 +3680,11 @@
       <c r="L59">
         <v>34405</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -3513,8 +3704,11 @@
       <c r="K60" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -3551,8 +3745,11 @@
       <c r="L61">
         <v>14020</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3589,8 +3786,11 @@
       <c r="L62">
         <v>43888</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -3627,8 +3827,11 @@
       <c r="L63">
         <v>34730</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -3665,8 +3868,11 @@
       <c r="L64">
         <v>44377</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -3703,8 +3909,11 @@
       <c r="L65">
         <v>40936</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -3741,8 +3950,11 @@
       <c r="L66">
         <v>44424</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -3779,8 +3991,11 @@
       <c r="L67">
         <v>44647</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -3817,8 +4032,11 @@
       <c r="L68">
         <v>13097</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -3855,8 +4073,11 @@
       <c r="L69">
         <v>44527</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -3890,8 +4111,11 @@
       <c r="L70">
         <v>19007</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -3925,8 +4149,11 @@
       <c r="K71" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -3963,8 +4190,11 @@
       <c r="L72">
         <v>27315</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4001,8 +4231,11 @@
       <c r="L73">
         <v>19392</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -4039,8 +4272,11 @@
       <c r="L74">
         <v>43833</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -4063,8 +4299,11 @@
       <c r="L75">
         <v>52413</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -4101,8 +4340,11 @@
       <c r="L76">
         <v>23587</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -4139,8 +4381,11 @@
       <c r="L77">
         <v>41323</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -4163,8 +4408,11 @@
       <c r="L78">
         <v>46988</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -4201,8 +4449,11 @@
       <c r="L79">
         <v>19329</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -4239,8 +4490,11 @@
       <c r="L80">
         <v>30562</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -4277,8 +4531,11 @@
       <c r="L81">
         <v>26382</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -4315,8 +4572,11 @@
       <c r="L82">
         <v>44094</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>168</v>
       </c>
@@ -4350,8 +4610,11 @@
       <c r="L83">
         <v>43641</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -4385,8 +4648,11 @@
       <c r="L84">
         <v>43641</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -4423,8 +4689,11 @@
       <c r="L85">
         <v>43590</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -4461,8 +4730,11 @@
       <c r="L86">
         <v>43419</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4499,8 +4771,11 @@
       <c r="L87">
         <v>43692</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -4537,8 +4812,11 @@
       <c r="L88">
         <v>43692</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -4575,8 +4853,11 @@
       <c r="L89">
         <v>43692</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +4894,11 @@
       <c r="L90">
         <v>43154</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4651,8 +4935,11 @@
       <c r="L91">
         <v>43966</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -4689,8 +4976,11 @@
       <c r="L92">
         <v>43111</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -4727,8 +5017,11 @@
       <c r="L93">
         <v>42257</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -4765,8 +5058,11 @@
       <c r="L94">
         <v>41778</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -4803,8 +5099,11 @@
       <c r="L95">
         <v>40936</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -4838,8 +5137,11 @@
       <c r="L96">
         <v>43154</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -4873,8 +5175,11 @@
       <c r="L97">
         <v>43154</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -4908,8 +5213,11 @@
       <c r="L98">
         <v>43154</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -4946,8 +5254,11 @@
       <c r="L99">
         <v>36743</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -4984,41 +5295,44 @@
       <c r="L100">
         <v>40936</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.25">
